--- a/templates/AutomationOrg/CRUD-Vat Class.xlsx
+++ b/templates/AutomationOrg/CRUD-Vat Class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432C3264-01F1-47E6-84A8-BF2511442467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D50FC8-8079-488E-B3F3-24E2E5BB777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3516" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{B73D79F6-2A48-418A-96E5-B7212A857519}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B73D79F6-2A48-418A-96E5-B7212A857519}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Vat Class" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>PK_VCLASS</t>
   </si>
   <si>
-    <t>Vat Class</t>
-  </si>
-  <si>
     <t>Vat Class-Update</t>
+  </si>
+  <si>
+    <t>Vat Class Description</t>
   </si>
 </sst>
 </file>
@@ -434,12 +434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E016F4EB-BD1E-42BB-AF22-C45BCB9237CE}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
@@ -493,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -511,11 +512,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F3D4CE-64FA-4E20-9198-FD0C02339D6F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -560,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
